--- a/resultados/resultados_221127.xlsx
+++ b/resultados/resultados_221127.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E01BB0-7DB9-CA45-8698-2278CC5D8740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B772CCFC-5C72-3747-98E0-BBFDDBECC045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139:B154"/>
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3938,11 +3938,17 @@
       </c>
       <c r="D138">
         <f>D121+E138</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E138">
         <f>3*F138+G138</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3957,11 +3963,17 @@
       </c>
       <c r="D139">
         <f t="shared" ref="D139:D154" si="14">D122+E139</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E139">
         <f t="shared" ref="E139:E154" si="15">3*F139+G139</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3982,6 +3994,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -4001,6 +4019,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -4020,6 +4044,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -4039,6 +4069,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -4058,6 +4094,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -4071,11 +4113,17 @@
       </c>
       <c r="D145">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E145">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -4096,7 +4144,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G146" s="3"/>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -4110,11 +4163,17 @@
       </c>
       <c r="D147">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E147">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -4129,11 +4188,17 @@
       </c>
       <c r="D148">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -4154,6 +4219,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -4167,11 +4238,17 @@
       </c>
       <c r="D150">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E150">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -4186,11 +4263,17 @@
       </c>
       <c r="D151">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -4205,11 +4288,17 @@
       </c>
       <c r="D152">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E152">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -4224,11 +4313,17 @@
       </c>
       <c r="D153">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E153">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -4243,11 +4338,17 @@
       </c>
       <c r="D154">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E154">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
